--- a/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_SM_COA_DeleteProfile.xlsx
+++ b/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_SM_COA_DeleteProfile.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\athakur\Documents\MDOT\rstar\rstars\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdighe\Documents\MDOT\rstars\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ABEA431-FCA1-41C1-98FE-BC5E837C1539}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03256907-3FA4-4384-BAA2-A55D24551AE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C27B608B-4FF1-4101-9BA2-41A4A441B648}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{C27B608B-4FF1-4101-9BA2-41A4A441B648}"/>
   </bookViews>
   <sheets>
     <sheet name="TestSteps" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
   <si>
     <t>Keyword</t>
   </si>
@@ -110,6 +110,15 @@
   </si>
   <si>
     <t>button_search</t>
+  </si>
+  <si>
+    <t>Enter Text To delete Appropriation Number Profile</t>
+  </si>
+  <si>
+    <t>NAN06</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -527,8 +536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2DC420B-DF1A-4C09-9F2D-3A7F68B062A2}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -680,18 +689,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C670B336-1522-463B-A32F-F4DDB70A1968}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.81640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -725,9 +735,15 @@
       <c r="E2" s="5"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
     </row>
@@ -738,6 +754,11 @@
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
     </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_SM_COA_DeleteProfile.xlsx
+++ b/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_SM_COA_DeleteProfile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\athakur\Documents\MDOT\rstar\rstars\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ABEA431-FCA1-41C1-98FE-BC5E837C1539}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BF69179-124C-439B-B7BC-FBDE83C03CE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C27B608B-4FF1-4101-9BA2-41A4A441B648}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{C27B608B-4FF1-4101-9BA2-41A4A441B648}"/>
   </bookViews>
   <sheets>
     <sheet name="TestSteps" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
   <si>
     <t>Keyword</t>
   </si>
@@ -110,6 +110,12 @@
   </si>
   <si>
     <t>button_search</t>
+  </si>
+  <si>
+    <t>Enter Text To delete Comptroller Object Profile</t>
+  </si>
+  <si>
+    <t>Thakur</t>
   </si>
 </sst>
 </file>
@@ -527,7 +533,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2DC420B-DF1A-4C09-9F2D-3A7F68B062A2}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
@@ -682,8 +688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C670B336-1522-463B-A32F-F4DDB70A1968}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -725,9 +731,15 @@
       <c r="E2" s="5"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
     </row>
